--- a/files/POM_and_PM_Development_Schedule_EN_20130325.xlsx
+++ b/files/POM_and_PM_Development_Schedule_EN_20130325.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="83">
   <si>
     <t>月</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Holiday</t>
   </si>
   <si>
-    <t>Legends:</t>
-  </si>
-  <si>
     <t>Weekends</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
   </si>
   <si>
     <t>Purchase Order Management (POM)</t>
-  </si>
-  <si>
-    <t>Purchase Management (PO)</t>
   </si>
   <si>
     <t>Coding</t>
@@ -292,12 +286,6 @@
     <t>Resolving Issues</t>
   </si>
   <si>
-    <t>14 days</t>
-  </si>
-  <si>
-    <t>1 day</t>
-  </si>
-  <si>
     <t>30 days</t>
   </si>
   <si>
@@ -306,12 +294,24 @@
   <si>
     <t>Task Name</t>
   </si>
+  <si>
+    <t>Purchase Management (PM)</t>
+  </si>
+  <si>
+    <t>21 days</t>
+  </si>
+  <si>
+    <t>Initial Release Date</t>
+  </si>
+  <si>
+    <t>Legends</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,15 +377,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1024,7 +1015,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1166,24 +1157,12 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1220,6 +1199,180 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1228,24 +1381,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1255,101 +1390,41 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1363,98 +1438,17 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1754,13 +1748,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:DB94"/>
+  <dimension ref="B1:DB95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B90" sqref="B90:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="1"/>
@@ -1800,123 +1794,123 @@
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="2:106" ht="13.5" customHeight="1">
-      <c r="B3" s="116" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="119" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="74" t="s">
+      <c r="B3" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="127" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="47" t="s">
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="52" t="s">
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="131"/>
+      <c r="AJ3" s="131"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="132"/>
+      <c r="AO3" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52"/>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="65" t="s">
+      <c r="AP3" s="133"/>
+      <c r="AQ3" s="133"/>
+      <c r="AR3" s="133"/>
+      <c r="AS3" s="133"/>
+      <c r="AT3" s="133"/>
+      <c r="AU3" s="133"/>
+      <c r="AV3" s="133"/>
+      <c r="AW3" s="133"/>
+      <c r="AX3" s="133"/>
+      <c r="AY3" s="133"/>
+      <c r="AZ3" s="133"/>
+      <c r="BA3" s="133"/>
+      <c r="BB3" s="133"/>
+      <c r="BC3" s="133"/>
+      <c r="BD3" s="133"/>
+      <c r="BE3" s="133"/>
+      <c r="BF3" s="133"/>
+      <c r="BG3" s="133"/>
+      <c r="BH3" s="133"/>
+      <c r="BI3" s="133"/>
+      <c r="BJ3" s="133"/>
+      <c r="BK3" s="133"/>
+      <c r="BL3" s="133"/>
+      <c r="BM3" s="133"/>
+      <c r="BN3" s="133"/>
+      <c r="BO3" s="133"/>
+      <c r="BP3" s="133"/>
+      <c r="BQ3" s="133"/>
+      <c r="BR3" s="133"/>
+      <c r="BS3" s="133"/>
+      <c r="BT3" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="BU3" s="66"/>
-      <c r="BV3" s="66"/>
-      <c r="BW3" s="66"/>
-      <c r="BX3" s="66"/>
-      <c r="BY3" s="66"/>
-      <c r="BZ3" s="66"/>
-      <c r="CA3" s="66"/>
-      <c r="CB3" s="66"/>
-      <c r="CC3" s="66"/>
-      <c r="CD3" s="66"/>
-      <c r="CE3" s="66"/>
-      <c r="CF3" s="66"/>
-      <c r="CG3" s="66"/>
-      <c r="CH3" s="66"/>
-      <c r="CI3" s="66"/>
-      <c r="CJ3" s="66"/>
-      <c r="CK3" s="66"/>
-      <c r="CL3" s="66"/>
-      <c r="CM3" s="66"/>
-      <c r="CN3" s="66"/>
-      <c r="CO3" s="66"/>
-      <c r="CP3" s="66"/>
-      <c r="CQ3" s="66"/>
-      <c r="CR3" s="66"/>
-      <c r="CS3" s="66"/>
-      <c r="CT3" s="66"/>
-      <c r="CU3" s="66"/>
-      <c r="CV3" s="66"/>
-      <c r="CW3" s="67"/>
+      <c r="BU3" s="120"/>
+      <c r="BV3" s="120"/>
+      <c r="BW3" s="120"/>
+      <c r="BX3" s="120"/>
+      <c r="BY3" s="120"/>
+      <c r="BZ3" s="120"/>
+      <c r="CA3" s="120"/>
+      <c r="CB3" s="120"/>
+      <c r="CC3" s="120"/>
+      <c r="CD3" s="120"/>
+      <c r="CE3" s="120"/>
+      <c r="CF3" s="120"/>
+      <c r="CG3" s="120"/>
+      <c r="CH3" s="120"/>
+      <c r="CI3" s="120"/>
+      <c r="CJ3" s="120"/>
+      <c r="CK3" s="120"/>
+      <c r="CL3" s="120"/>
+      <c r="CM3" s="120"/>
+      <c r="CN3" s="120"/>
+      <c r="CO3" s="120"/>
+      <c r="CP3" s="120"/>
+      <c r="CQ3" s="120"/>
+      <c r="CR3" s="120"/>
+      <c r="CS3" s="120"/>
+      <c r="CT3" s="120"/>
+      <c r="CU3" s="120"/>
+      <c r="CV3" s="120"/>
+      <c r="CW3" s="121"/>
     </row>
     <row r="4" spans="2:106" ht="15" customHeight="1">
-      <c r="B4" s="117"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="82">
+      <c r="B4" s="125"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="73">
         <v>25</v>
       </c>
       <c r="E4" s="5">
@@ -1925,16 +1919,16 @@
       <c r="F4" s="5">
         <v>27</v>
       </c>
-      <c r="G4" s="126">
+      <c r="G4" s="102">
         <v>28</v>
       </c>
-      <c r="H4" s="126">
+      <c r="H4" s="102">
         <v>29</v>
       </c>
       <c r="I4" s="7">
         <v>30</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="52">
         <v>31</v>
       </c>
       <c r="K4" s="31">
@@ -1961,7 +1955,7 @@
       <c r="R4" s="29">
         <v>8</v>
       </c>
-      <c r="S4" s="131">
+      <c r="S4" s="107">
         <v>9</v>
       </c>
       <c r="T4" s="29">
@@ -2024,10 +2018,10 @@
       <c r="AM4" s="29">
         <v>29</v>
       </c>
-      <c r="AN4" s="91">
+      <c r="AN4" s="80">
         <v>30</v>
       </c>
-      <c r="AO4" s="133">
+      <c r="AO4" s="109">
         <v>1</v>
       </c>
       <c r="AP4" s="29">
@@ -2117,10 +2111,10 @@
       <c r="BR4" s="29">
         <v>30</v>
       </c>
-      <c r="BS4" s="50">
+      <c r="BS4" s="47">
         <v>31</v>
       </c>
-      <c r="BT4" s="62">
+      <c r="BT4" s="58">
         <v>1</v>
       </c>
       <c r="BU4" s="45">
@@ -2153,7 +2147,7 @@
       <c r="CD4" s="29">
         <v>11</v>
       </c>
-      <c r="CE4" s="77">
+      <c r="CE4" s="68">
         <v>12</v>
       </c>
       <c r="CF4" s="29">
@@ -2207,19 +2201,19 @@
       <c r="CV4" s="45">
         <v>29</v>
       </c>
-      <c r="CW4" s="69">
+      <c r="CW4" s="62">
         <v>30</v>
       </c>
-      <c r="CX4" s="54"/>
-      <c r="CY4" s="61"/>
-      <c r="CZ4" s="61"/>
-      <c r="DA4" s="61"/>
-      <c r="DB4" s="61"/>
+      <c r="CX4" s="50"/>
+      <c r="CY4" s="57"/>
+      <c r="CZ4" s="57"/>
+      <c r="DA4" s="57"/>
+      <c r="DB4" s="57"/>
     </row>
     <row r="5" spans="2:106" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="118"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="60" t="s">
+      <c r="B5" s="126"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="56" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="25" t="s">
@@ -2228,16 +2222,16 @@
       <c r="F5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="127" t="s">
+      <c r="G5" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="103" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="53" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="24" t="s">
@@ -2264,7 +2258,7 @@
       <c r="R5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="127" t="s">
+      <c r="S5" s="103" t="s">
         <v>1</v>
       </c>
       <c r="T5" s="14" t="s">
@@ -2327,10 +2321,10 @@
       <c r="AM5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AN5" s="124" t="s">
+      <c r="AN5" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="AO5" s="134" t="s">
+      <c r="AO5" s="110" t="s">
         <v>2</v>
       </c>
       <c r="AP5" s="25" t="s">
@@ -2420,10 +2414,10 @@
       <c r="BR5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="BS5" s="51" t="s">
+      <c r="BS5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="BT5" s="63" t="s">
+      <c r="BT5" s="59" t="s">
         <v>5</v>
       </c>
       <c r="BU5" s="44" t="s">
@@ -2441,10 +2435,10 @@
       <c r="BY5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="BZ5" s="51" t="s">
+      <c r="BZ5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="CA5" s="63" t="s">
+      <c r="CA5" s="59" t="s">
         <v>5</v>
       </c>
       <c r="CB5" s="44" t="s">
@@ -2456,16 +2450,16 @@
       <c r="CD5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="CE5" s="76" t="s">
+      <c r="CE5" s="67" t="s">
         <v>2</v>
       </c>
       <c r="CF5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="CG5" s="51" t="s">
+      <c r="CG5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="CH5" s="63" t="s">
+      <c r="CH5" s="59" t="s">
         <v>5</v>
       </c>
       <c r="CI5" s="44" t="s">
@@ -2483,10 +2477,10 @@
       <c r="CM5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="CN5" s="51" t="s">
+      <c r="CN5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="CO5" s="63" t="s">
+      <c r="CO5" s="59" t="s">
         <v>5</v>
       </c>
       <c r="CP5" s="44" t="s">
@@ -2504,31 +2498,31 @@
       <c r="CT5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="CU5" s="51" t="s">
+      <c r="CU5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="CV5" s="63" t="s">
+      <c r="CV5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="CW5" s="68" t="s">
+      <c r="CW5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="CX5" s="54"/>
-      <c r="CY5" s="54"/>
-      <c r="CZ5" s="54"/>
-      <c r="DA5" s="54"/>
-      <c r="DB5" s="54"/>
+      <c r="CX5" s="50"/>
+      <c r="CY5" s="50"/>
+      <c r="CZ5" s="50"/>
+      <c r="DA5" s="50"/>
+      <c r="DB5" s="50"/>
     </row>
     <row r="6" spans="2:106" ht="15" customHeight="1">
-      <c r="B6" s="79"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="83"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="58"/>
+      <c r="J6" s="54"/>
       <c r="K6" s="33"/>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
@@ -2537,7 +2531,7 @@
       <c r="P6" s="46"/>
       <c r="Q6" s="46"/>
       <c r="R6" s="30"/>
-      <c r="S6" s="132"/>
+      <c r="S6" s="108"/>
       <c r="T6" s="30"/>
       <c r="U6" s="30"/>
       <c r="V6" s="30"/>
@@ -2558,8 +2552,8 @@
       <c r="AK6" s="46"/>
       <c r="AL6" s="46"/>
       <c r="AM6" s="30"/>
-      <c r="AN6" s="125"/>
-      <c r="AO6" s="135"/>
+      <c r="AN6" s="101"/>
+      <c r="AO6" s="111"/>
       <c r="AP6" s="30"/>
       <c r="AQ6" s="30"/>
       <c r="AR6" s="46"/>
@@ -2589,8 +2583,8 @@
       <c r="BP6" s="30"/>
       <c r="BQ6" s="30"/>
       <c r="BR6" s="30"/>
-      <c r="BS6" s="55"/>
-      <c r="BT6" s="64"/>
+      <c r="BS6" s="51"/>
+      <c r="BT6" s="60"/>
       <c r="BU6" s="46"/>
       <c r="BV6" s="30"/>
       <c r="BW6" s="30"/>
@@ -2601,7 +2595,7 @@
       <c r="CB6" s="46"/>
       <c r="CC6" s="30"/>
       <c r="CD6" s="30"/>
-      <c r="CE6" s="78"/>
+      <c r="CE6" s="69"/>
       <c r="CF6" s="30"/>
       <c r="CG6" s="30"/>
       <c r="CH6" s="46"/>
@@ -2619,19 +2613,19 @@
       <c r="CT6" s="30"/>
       <c r="CU6" s="30"/>
       <c r="CV6" s="46"/>
-      <c r="CW6" s="70"/>
-      <c r="CX6" s="54"/>
-      <c r="CY6" s="61"/>
-      <c r="CZ6" s="61"/>
-      <c r="DA6" s="61"/>
-      <c r="DB6" s="61"/>
+      <c r="CW6" s="63"/>
+      <c r="CX6" s="50"/>
+      <c r="CY6" s="57"/>
+      <c r="CZ6" s="57"/>
+      <c r="DA6" s="57"/>
+      <c r="DB6" s="57"/>
     </row>
     <row r="7" spans="2:106" ht="15" customHeight="1">
-      <c r="B7" s="80" t="s">
-        <v>46</v>
+      <c r="B7" s="71" t="s">
+        <v>45</v>
       </c>
       <c r="C7" s="37"/>
-      <c r="D7" s="71"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
@@ -2646,7 +2640,7 @@
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35"/>
-      <c r="S7" s="129"/>
+      <c r="S7" s="105"/>
       <c r="T7" s="35"/>
       <c r="U7" s="35"/>
       <c r="V7" s="35"/>
@@ -2668,7 +2662,7 @@
       <c r="AL7" s="35"/>
       <c r="AM7" s="35"/>
       <c r="AN7" s="38"/>
-      <c r="AO7" s="71"/>
+      <c r="AO7" s="64"/>
       <c r="AP7" s="35"/>
       <c r="AQ7" s="35"/>
       <c r="AR7" s="35"/>
@@ -2729,22 +2723,22 @@
       <c r="CU7" s="35"/>
       <c r="CV7" s="35"/>
       <c r="CW7" s="38"/>
-      <c r="CX7" s="54"/>
-      <c r="CY7" s="61"/>
-      <c r="CZ7" s="61"/>
-      <c r="DA7" s="61"/>
-      <c r="DB7" s="61"/>
+      <c r="CX7" s="50"/>
+      <c r="CY7" s="57"/>
+      <c r="CZ7" s="57"/>
+      <c r="DA7" s="57"/>
+      <c r="DB7" s="57"/>
     </row>
     <row r="8" spans="2:106" ht="15" customHeight="1">
-      <c r="B8" s="81"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="53"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="59"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="31"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
@@ -2753,7 +2747,7 @@
       <c r="P8" s="45"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="29"/>
-      <c r="S8" s="131"/>
+      <c r="S8" s="107"/>
       <c r="T8" s="29"/>
       <c r="U8" s="29"/>
       <c r="V8" s="29"/>
@@ -2774,8 +2768,8 @@
       <c r="AK8" s="45"/>
       <c r="AL8" s="45"/>
       <c r="AM8" s="29"/>
-      <c r="AN8" s="91"/>
-      <c r="AO8" s="133"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="109"/>
       <c r="AP8" s="29"/>
       <c r="AQ8" s="29"/>
       <c r="AR8" s="45"/>
@@ -2805,8 +2799,8 @@
       <c r="BP8" s="29"/>
       <c r="BQ8" s="29"/>
       <c r="BR8" s="29"/>
-      <c r="BS8" s="50"/>
-      <c r="BT8" s="62"/>
+      <c r="BS8" s="47"/>
+      <c r="BT8" s="58"/>
       <c r="BU8" s="45"/>
       <c r="BV8" s="29"/>
       <c r="BW8" s="29"/>
@@ -2817,7 +2811,7 @@
       <c r="CB8" s="45"/>
       <c r="CC8" s="29"/>
       <c r="CD8" s="29"/>
-      <c r="CE8" s="77"/>
+      <c r="CE8" s="68"/>
       <c r="CF8" s="29"/>
       <c r="CG8" s="29"/>
       <c r="CH8" s="45"/>
@@ -2835,27 +2829,27 @@
       <c r="CT8" s="29"/>
       <c r="CU8" s="29"/>
       <c r="CV8" s="45"/>
-      <c r="CW8" s="69"/>
-      <c r="CX8" s="54"/>
-      <c r="CY8" s="61"/>
-      <c r="CZ8" s="61"/>
-      <c r="DA8" s="61"/>
-      <c r="DB8" s="61"/>
+      <c r="CW8" s="62"/>
+      <c r="CX8" s="50"/>
+      <c r="CY8" s="57"/>
+      <c r="CZ8" s="57"/>
+      <c r="DA8" s="57"/>
+      <c r="DB8" s="57"/>
     </row>
     <row r="9" spans="2:106" ht="15" customHeight="1">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="72" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D9" s="113"/>
+      <c r="E9" s="114"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="59"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="31"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
@@ -2864,7 +2858,7 @@
       <c r="P9" s="45"/>
       <c r="Q9" s="45"/>
       <c r="R9" s="29"/>
-      <c r="S9" s="131"/>
+      <c r="S9" s="107"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
       <c r="V9" s="29"/>
@@ -2885,8 +2879,8 @@
       <c r="AK9" s="45"/>
       <c r="AL9" s="45"/>
       <c r="AM9" s="29"/>
-      <c r="AN9" s="91"/>
-      <c r="AO9" s="133"/>
+      <c r="AN9" s="80"/>
+      <c r="AO9" s="109"/>
       <c r="AP9" s="29"/>
       <c r="AQ9" s="29"/>
       <c r="AR9" s="45"/>
@@ -2916,8 +2910,8 @@
       <c r="BP9" s="29"/>
       <c r="BQ9" s="29"/>
       <c r="BR9" s="29"/>
-      <c r="BS9" s="50"/>
-      <c r="BT9" s="62"/>
+      <c r="BS9" s="47"/>
+      <c r="BT9" s="58"/>
       <c r="BU9" s="45"/>
       <c r="BV9" s="29"/>
       <c r="BW9" s="29"/>
@@ -2928,7 +2922,7 @@
       <c r="CB9" s="45"/>
       <c r="CC9" s="29"/>
       <c r="CD9" s="29"/>
-      <c r="CE9" s="77"/>
+      <c r="CE9" s="68"/>
       <c r="CF9" s="29"/>
       <c r="CG9" s="29"/>
       <c r="CH9" s="45"/>
@@ -2946,54 +2940,54 @@
       <c r="CT9" s="29"/>
       <c r="CU9" s="29"/>
       <c r="CV9" s="45"/>
-      <c r="CW9" s="69"/>
+      <c r="CW9" s="62"/>
       <c r="CX9" s="4"/>
     </row>
     <row r="10" spans="2:106" ht="15" customHeight="1">
-      <c r="B10" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
+      <c r="B10" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="140"/>
-      <c r="O10" s="140"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
       <c r="P10" s="45"/>
       <c r="Q10" s="45"/>
-      <c r="R10" s="140"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="140"/>
-      <c r="U10" s="140"/>
-      <c r="V10" s="140"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
       <c r="W10" s="45"/>
       <c r="X10" s="45"/>
-      <c r="Y10" s="140"/>
-      <c r="Z10" s="140"/>
-      <c r="AA10" s="140"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
       <c r="AD10" s="45"/>
       <c r="AE10" s="45"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="116"/>
       <c r="AK10" s="45"/>
       <c r="AL10" s="45"/>
       <c r="AM10" s="29"/>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="133"/>
+      <c r="AN10" s="80"/>
+      <c r="AO10" s="109"/>
       <c r="AP10" s="29"/>
       <c r="AQ10" s="29"/>
       <c r="AR10" s="45"/>
@@ -3023,8 +3017,8 @@
       <c r="BP10" s="29"/>
       <c r="BQ10" s="29"/>
       <c r="BR10" s="29"/>
-      <c r="BS10" s="50"/>
-      <c r="BT10" s="62"/>
+      <c r="BS10" s="47"/>
+      <c r="BT10" s="58"/>
       <c r="BU10" s="45"/>
       <c r="BV10" s="29"/>
       <c r="BW10" s="29"/>
@@ -3035,7 +3029,7 @@
       <c r="CB10" s="45"/>
       <c r="CC10" s="29"/>
       <c r="CD10" s="29"/>
-      <c r="CE10" s="77"/>
+      <c r="CE10" s="68"/>
       <c r="CF10" s="29"/>
       <c r="CG10" s="29"/>
       <c r="CH10" s="45"/>
@@ -3053,23 +3047,23 @@
       <c r="CT10" s="29"/>
       <c r="CU10" s="29"/>
       <c r="CV10" s="45"/>
-      <c r="CW10" s="69"/>
+      <c r="CW10" s="62"/>
       <c r="CX10" s="4"/>
     </row>
     <row r="11" spans="2:106" ht="15" customHeight="1">
-      <c r="B11" s="81" t="s">
-        <v>52</v>
+      <c r="B11" s="72" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="53"/>
+        <v>32</v>
+      </c>
+      <c r="D11" s="49"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="59"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="31"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
@@ -3078,7 +3072,7 @@
       <c r="P11" s="45"/>
       <c r="Q11" s="45"/>
       <c r="R11" s="29"/>
-      <c r="S11" s="131"/>
+      <c r="S11" s="107"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
@@ -3099,8 +3093,8 @@
       <c r="AK11" s="45"/>
       <c r="AL11" s="45"/>
       <c r="AM11" s="29"/>
-      <c r="AN11" s="91"/>
-      <c r="AO11" s="133"/>
+      <c r="AN11" s="80"/>
+      <c r="AO11" s="109"/>
       <c r="AP11" s="29"/>
       <c r="AQ11" s="29"/>
       <c r="AR11" s="45"/>
@@ -3130,8 +3124,8 @@
       <c r="BP11" s="29"/>
       <c r="BQ11" s="29"/>
       <c r="BR11" s="29"/>
-      <c r="BS11" s="50"/>
-      <c r="BT11" s="62"/>
+      <c r="BS11" s="47"/>
+      <c r="BT11" s="58"/>
       <c r="BU11" s="45"/>
       <c r="BV11" s="29"/>
       <c r="BW11" s="29"/>
@@ -3142,7 +3136,7 @@
       <c r="CB11" s="45"/>
       <c r="CC11" s="29"/>
       <c r="CD11" s="29"/>
-      <c r="CE11" s="77"/>
+      <c r="CE11" s="68"/>
       <c r="CF11" s="29"/>
       <c r="CG11" s="29"/>
       <c r="CH11" s="45"/>
@@ -3160,23 +3154,23 @@
       <c r="CT11" s="29"/>
       <c r="CU11" s="29"/>
       <c r="CV11" s="45"/>
-      <c r="CW11" s="69"/>
+      <c r="CW11" s="62"/>
       <c r="CX11" s="4"/>
     </row>
     <row r="12" spans="2:106" ht="15" customHeight="1">
-      <c r="B12" s="81" t="s">
-        <v>77</v>
+      <c r="B12" s="72" t="s">
+        <v>75</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="53"/>
+        <v>47</v>
+      </c>
+      <c r="D12" s="49"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="59"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="31"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
@@ -3185,7 +3179,7 @@
       <c r="P12" s="45"/>
       <c r="Q12" s="45"/>
       <c r="R12" s="29"/>
-      <c r="S12" s="131"/>
+      <c r="S12" s="107"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
       <c r="V12" s="29"/>
@@ -3206,8 +3200,8 @@
       <c r="AK12" s="45"/>
       <c r="AL12" s="45"/>
       <c r="AM12" s="29"/>
-      <c r="AN12" s="91"/>
-      <c r="AO12" s="133"/>
+      <c r="AN12" s="80"/>
+      <c r="AO12" s="109"/>
       <c r="AP12" s="29"/>
       <c r="AQ12" s="29"/>
       <c r="AR12" s="45"/>
@@ -3237,8 +3231,8 @@
       <c r="BP12" s="29"/>
       <c r="BQ12" s="29"/>
       <c r="BR12" s="29"/>
-      <c r="BS12" s="50"/>
-      <c r="BT12" s="62"/>
+      <c r="BS12" s="47"/>
+      <c r="BT12" s="58"/>
       <c r="BU12" s="45"/>
       <c r="BV12" s="29"/>
       <c r="BW12" s="29"/>
@@ -3249,7 +3243,7 @@
       <c r="CB12" s="45"/>
       <c r="CC12" s="29"/>
       <c r="CD12" s="29"/>
-      <c r="CE12" s="77"/>
+      <c r="CE12" s="68"/>
       <c r="CF12" s="29"/>
       <c r="CG12" s="29"/>
       <c r="CH12" s="45"/>
@@ -3267,19 +3261,19 @@
       <c r="CT12" s="29"/>
       <c r="CU12" s="29"/>
       <c r="CV12" s="45"/>
-      <c r="CW12" s="69"/>
+      <c r="CW12" s="62"/>
       <c r="CX12" s="4"/>
     </row>
     <row r="13" spans="2:106" ht="15" customHeight="1">
-      <c r="B13" s="81"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="53"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="59"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="31"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
@@ -3288,7 +3282,7 @@
       <c r="P13" s="45"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="29"/>
-      <c r="S13" s="131"/>
+      <c r="S13" s="107"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
       <c r="V13" s="29"/>
@@ -3309,8 +3303,8 @@
       <c r="AK13" s="45"/>
       <c r="AL13" s="45"/>
       <c r="AM13" s="29"/>
-      <c r="AN13" s="91"/>
-      <c r="AO13" s="133"/>
+      <c r="AN13" s="80"/>
+      <c r="AO13" s="109"/>
       <c r="AP13" s="29"/>
       <c r="AQ13" s="29"/>
       <c r="AR13" s="45"/>
@@ -3340,8 +3334,8 @@
       <c r="BP13" s="29"/>
       <c r="BQ13" s="29"/>
       <c r="BR13" s="29"/>
-      <c r="BS13" s="50"/>
-      <c r="BT13" s="62"/>
+      <c r="BS13" s="47"/>
+      <c r="BT13" s="58"/>
       <c r="BU13" s="45"/>
       <c r="BV13" s="29"/>
       <c r="BW13" s="29"/>
@@ -3352,7 +3346,7 @@
       <c r="CB13" s="45"/>
       <c r="CC13" s="29"/>
       <c r="CD13" s="29"/>
-      <c r="CE13" s="77"/>
+      <c r="CE13" s="68"/>
       <c r="CF13" s="29"/>
       <c r="CG13" s="29"/>
       <c r="CH13" s="45"/>
@@ -3370,23 +3364,23 @@
       <c r="CT13" s="29"/>
       <c r="CU13" s="29"/>
       <c r="CV13" s="45"/>
-      <c r="CW13" s="69"/>
+      <c r="CW13" s="62"/>
       <c r="CX13" s="4"/>
     </row>
     <row r="14" spans="2:106" ht="15" customHeight="1">
-      <c r="B14" s="81" t="s">
-        <v>53</v>
+      <c r="B14" s="72" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="53"/>
+        <v>33</v>
+      </c>
+      <c r="D14" s="49"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="59"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="31"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
@@ -3395,7 +3389,7 @@
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
       <c r="R14" s="29"/>
-      <c r="S14" s="131"/>
+      <c r="S14" s="107"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
       <c r="V14" s="29"/>
@@ -3416,8 +3410,8 @@
       <c r="AK14" s="45"/>
       <c r="AL14" s="45"/>
       <c r="AM14" s="29"/>
-      <c r="AN14" s="91"/>
-      <c r="AO14" s="133"/>
+      <c r="AN14" s="80"/>
+      <c r="AO14" s="109"/>
       <c r="AP14" s="29"/>
       <c r="AQ14" s="29"/>
       <c r="AR14" s="45"/>
@@ -3447,8 +3441,8 @@
       <c r="BP14" s="29"/>
       <c r="BQ14" s="29"/>
       <c r="BR14" s="29"/>
-      <c r="BS14" s="50"/>
-      <c r="BT14" s="62"/>
+      <c r="BS14" s="47"/>
+      <c r="BT14" s="58"/>
       <c r="BU14" s="45"/>
       <c r="BV14" s="29"/>
       <c r="BW14" s="29"/>
@@ -3459,7 +3453,7 @@
       <c r="CB14" s="45"/>
       <c r="CC14" s="29"/>
       <c r="CD14" s="29"/>
-      <c r="CE14" s="77"/>
+      <c r="CE14" s="68"/>
       <c r="CF14" s="29"/>
       <c r="CG14" s="29"/>
       <c r="CH14" s="45"/>
@@ -3477,23 +3471,23 @@
       <c r="CT14" s="29"/>
       <c r="CU14" s="29"/>
       <c r="CV14" s="45"/>
-      <c r="CW14" s="69"/>
+      <c r="CW14" s="62"/>
       <c r="CX14" s="4"/>
     </row>
     <row r="15" spans="2:106" ht="15" customHeight="1">
-      <c r="B15" s="81" t="s">
-        <v>77</v>
+      <c r="B15" s="72" t="s">
+        <v>75</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="53"/>
+        <v>33</v>
+      </c>
+      <c r="D15" s="49"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="59"/>
+      <c r="J15" s="55"/>
       <c r="K15" s="31"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
@@ -3502,7 +3496,7 @@
       <c r="P15" s="45"/>
       <c r="Q15" s="45"/>
       <c r="R15" s="29"/>
-      <c r="S15" s="131"/>
+      <c r="S15" s="107"/>
       <c r="T15" s="29"/>
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
@@ -3523,8 +3517,8 @@
       <c r="AK15" s="45"/>
       <c r="AL15" s="45"/>
       <c r="AM15" s="29"/>
-      <c r="AN15" s="91"/>
-      <c r="AO15" s="133"/>
+      <c r="AN15" s="80"/>
+      <c r="AO15" s="109"/>
       <c r="AP15" s="29"/>
       <c r="AQ15" s="29"/>
       <c r="AR15" s="45"/>
@@ -3554,8 +3548,8 @@
       <c r="BP15" s="29"/>
       <c r="BQ15" s="29"/>
       <c r="BR15" s="29"/>
-      <c r="BS15" s="50"/>
-      <c r="BT15" s="62"/>
+      <c r="BS15" s="47"/>
+      <c r="BT15" s="58"/>
       <c r="BU15" s="45"/>
       <c r="BV15" s="29"/>
       <c r="BW15" s="29"/>
@@ -3566,7 +3560,7 @@
       <c r="CB15" s="45"/>
       <c r="CC15" s="29"/>
       <c r="CD15" s="29"/>
-      <c r="CE15" s="77"/>
+      <c r="CE15" s="68"/>
       <c r="CF15" s="29"/>
       <c r="CG15" s="29"/>
       <c r="CH15" s="45"/>
@@ -3584,19 +3578,19 @@
       <c r="CT15" s="29"/>
       <c r="CU15" s="29"/>
       <c r="CV15" s="45"/>
-      <c r="CW15" s="69"/>
+      <c r="CW15" s="62"/>
       <c r="CX15" s="4"/>
     </row>
     <row r="16" spans="2:106" ht="15" customHeight="1">
-      <c r="B16" s="81"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="23"/>
-      <c r="D16" s="53"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="59"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="31"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
@@ -3605,7 +3599,7 @@
       <c r="P16" s="45"/>
       <c r="Q16" s="45"/>
       <c r="R16" s="29"/>
-      <c r="S16" s="131"/>
+      <c r="S16" s="107"/>
       <c r="T16" s="29"/>
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
@@ -3626,8 +3620,8 @@
       <c r="AK16" s="45"/>
       <c r="AL16" s="45"/>
       <c r="AM16" s="29"/>
-      <c r="AN16" s="91"/>
-      <c r="AO16" s="133"/>
+      <c r="AN16" s="80"/>
+      <c r="AO16" s="109"/>
       <c r="AP16" s="29"/>
       <c r="AQ16" s="29"/>
       <c r="AR16" s="45"/>
@@ -3657,8 +3651,8 @@
       <c r="BP16" s="29"/>
       <c r="BQ16" s="29"/>
       <c r="BR16" s="29"/>
-      <c r="BS16" s="50"/>
-      <c r="BT16" s="62"/>
+      <c r="BS16" s="47"/>
+      <c r="BT16" s="58"/>
       <c r="BU16" s="45"/>
       <c r="BV16" s="29"/>
       <c r="BW16" s="29"/>
@@ -3669,7 +3663,7 @@
       <c r="CB16" s="45"/>
       <c r="CC16" s="29"/>
       <c r="CD16" s="29"/>
-      <c r="CE16" s="77"/>
+      <c r="CE16" s="68"/>
       <c r="CF16" s="29"/>
       <c r="CG16" s="29"/>
       <c r="CH16" s="45"/>
@@ -3687,21 +3681,21 @@
       <c r="CT16" s="29"/>
       <c r="CU16" s="29"/>
       <c r="CV16" s="45"/>
-      <c r="CW16" s="69"/>
+      <c r="CW16" s="62"/>
       <c r="CX16" s="4"/>
     </row>
     <row r="17" spans="2:102" ht="15" customHeight="1">
-      <c r="B17" s="81" t="s">
-        <v>50</v>
+      <c r="B17" s="72" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="53"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="59"/>
+      <c r="J17" s="55"/>
       <c r="K17" s="31"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
@@ -3710,7 +3704,7 @@
       <c r="P17" s="45"/>
       <c r="Q17" s="45"/>
       <c r="R17" s="29"/>
-      <c r="S17" s="131"/>
+      <c r="S17" s="107"/>
       <c r="T17" s="29"/>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
@@ -3731,8 +3725,8 @@
       <c r="AK17" s="45"/>
       <c r="AL17" s="45"/>
       <c r="AM17" s="29"/>
-      <c r="AN17" s="91"/>
-      <c r="AO17" s="133"/>
+      <c r="AN17" s="80"/>
+      <c r="AO17" s="109"/>
       <c r="AP17" s="29"/>
       <c r="AQ17" s="29"/>
       <c r="AR17" s="45"/>
@@ -3762,8 +3756,8 @@
       <c r="BP17" s="29"/>
       <c r="BQ17" s="29"/>
       <c r="BR17" s="29"/>
-      <c r="BS17" s="50"/>
-      <c r="BT17" s="62"/>
+      <c r="BS17" s="47"/>
+      <c r="BT17" s="58"/>
       <c r="BU17" s="45"/>
       <c r="BV17" s="29"/>
       <c r="BW17" s="29"/>
@@ -3774,7 +3768,7 @@
       <c r="CB17" s="45"/>
       <c r="CC17" s="29"/>
       <c r="CD17" s="29"/>
-      <c r="CE17" s="77"/>
+      <c r="CE17" s="68"/>
       <c r="CF17" s="29"/>
       <c r="CG17" s="29"/>
       <c r="CH17" s="45"/>
@@ -3792,19 +3786,19 @@
       <c r="CT17" s="29"/>
       <c r="CU17" s="29"/>
       <c r="CV17" s="45"/>
-      <c r="CW17" s="69"/>
+      <c r="CW17" s="62"/>
       <c r="CX17" s="4"/>
     </row>
     <row r="18" spans="2:102" ht="15" customHeight="1">
-      <c r="B18" s="81"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="23"/>
-      <c r="D18" s="53"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="59"/>
+      <c r="J18" s="55"/>
       <c r="K18" s="31"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
@@ -3813,7 +3807,7 @@
       <c r="P18" s="45"/>
       <c r="Q18" s="45"/>
       <c r="R18" s="29"/>
-      <c r="S18" s="131"/>
+      <c r="S18" s="107"/>
       <c r="T18" s="29"/>
       <c r="U18" s="29"/>
       <c r="V18" s="29"/>
@@ -3834,8 +3828,8 @@
       <c r="AK18" s="45"/>
       <c r="AL18" s="45"/>
       <c r="AM18" s="29"/>
-      <c r="AN18" s="91"/>
-      <c r="AO18" s="133"/>
+      <c r="AN18" s="80"/>
+      <c r="AO18" s="109"/>
       <c r="AP18" s="29"/>
       <c r="AQ18" s="29"/>
       <c r="AR18" s="45"/>
@@ -3865,8 +3859,8 @@
       <c r="BP18" s="29"/>
       <c r="BQ18" s="29"/>
       <c r="BR18" s="29"/>
-      <c r="BS18" s="50"/>
-      <c r="BT18" s="62"/>
+      <c r="BS18" s="47"/>
+      <c r="BT18" s="58"/>
       <c r="BU18" s="45"/>
       <c r="BV18" s="29"/>
       <c r="BW18" s="29"/>
@@ -3877,7 +3871,7 @@
       <c r="CB18" s="45"/>
       <c r="CC18" s="29"/>
       <c r="CD18" s="29"/>
-      <c r="CE18" s="77"/>
+      <c r="CE18" s="68"/>
       <c r="CF18" s="29"/>
       <c r="CG18" s="29"/>
       <c r="CH18" s="45"/>
@@ -3895,15 +3889,15 @@
       <c r="CT18" s="29"/>
       <c r="CU18" s="29"/>
       <c r="CV18" s="45"/>
-      <c r="CW18" s="69"/>
+      <c r="CW18" s="62"/>
       <c r="CX18" s="4"/>
     </row>
     <row r="19" spans="2:102" ht="15" customHeight="1">
-      <c r="B19" s="80" t="s">
-        <v>47</v>
+      <c r="B19" s="71" t="s">
+        <v>79</v>
       </c>
       <c r="C19" s="37"/>
-      <c r="D19" s="71"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -3940,7 +3934,7 @@
       <c r="AL19" s="36"/>
       <c r="AM19" s="36"/>
       <c r="AN19" s="40"/>
-      <c r="AO19" s="72"/>
+      <c r="AO19" s="65"/>
       <c r="AP19" s="36"/>
       <c r="AQ19" s="36"/>
       <c r="AR19" s="36"/>
@@ -3970,7 +3964,7 @@
       <c r="BP19" s="36"/>
       <c r="BQ19" s="36"/>
       <c r="BR19" s="36"/>
-      <c r="BS19" s="73"/>
+      <c r="BS19" s="66"/>
       <c r="BT19" s="39"/>
       <c r="BU19" s="36"/>
       <c r="BV19" s="36"/>
@@ -4004,15 +3998,15 @@
       <c r="CX19" s="4"/>
     </row>
     <row r="20" spans="2:102" ht="15" customHeight="1">
-      <c r="B20" s="81"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="23"/>
-      <c r="D20" s="53"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="59"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="31"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
@@ -4021,7 +4015,7 @@
       <c r="P20" s="45"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="29"/>
-      <c r="S20" s="131"/>
+      <c r="S20" s="107"/>
       <c r="T20" s="29"/>
       <c r="U20" s="29"/>
       <c r="V20" s="29"/>
@@ -4042,8 +4036,8 @@
       <c r="AK20" s="45"/>
       <c r="AL20" s="45"/>
       <c r="AM20" s="29"/>
-      <c r="AN20" s="91"/>
-      <c r="AO20" s="133"/>
+      <c r="AN20" s="80"/>
+      <c r="AO20" s="109"/>
       <c r="AP20" s="29"/>
       <c r="AQ20" s="29"/>
       <c r="AR20" s="45"/>
@@ -4073,8 +4067,8 @@
       <c r="BP20" s="29"/>
       <c r="BQ20" s="29"/>
       <c r="BR20" s="29"/>
-      <c r="BS20" s="50"/>
-      <c r="BT20" s="62"/>
+      <c r="BS20" s="47"/>
+      <c r="BT20" s="58"/>
       <c r="BU20" s="45"/>
       <c r="BV20" s="29"/>
       <c r="BW20" s="29"/>
@@ -4085,7 +4079,7 @@
       <c r="CB20" s="45"/>
       <c r="CC20" s="29"/>
       <c r="CD20" s="29"/>
-      <c r="CE20" s="77"/>
+      <c r="CE20" s="68"/>
       <c r="CF20" s="29"/>
       <c r="CG20" s="29"/>
       <c r="CH20" s="45"/>
@@ -4103,23 +4097,23 @@
       <c r="CT20" s="29"/>
       <c r="CU20" s="29"/>
       <c r="CV20" s="45"/>
-      <c r="CW20" s="69"/>
+      <c r="CW20" s="62"/>
       <c r="CX20" s="4"/>
     </row>
     <row r="21" spans="2:102" ht="15" customHeight="1">
-      <c r="B21" s="81" t="s">
-        <v>31</v>
+      <c r="B21" s="72" t="s">
+        <v>30</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="137"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
+        <v>33</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="59"/>
+      <c r="J21" s="55"/>
       <c r="K21" s="31"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
@@ -4128,7 +4122,7 @@
       <c r="P21" s="45"/>
       <c r="Q21" s="45"/>
       <c r="R21" s="29"/>
-      <c r="S21" s="131"/>
+      <c r="S21" s="107"/>
       <c r="T21" s="29"/>
       <c r="U21" s="29"/>
       <c r="V21" s="29"/>
@@ -4149,8 +4143,8 @@
       <c r="AK21" s="45"/>
       <c r="AL21" s="45"/>
       <c r="AM21" s="29"/>
-      <c r="AN21" s="91"/>
-      <c r="AO21" s="133"/>
+      <c r="AN21" s="80"/>
+      <c r="AO21" s="109"/>
       <c r="AP21" s="29"/>
       <c r="AQ21" s="29"/>
       <c r="AR21" s="45"/>
@@ -4180,8 +4174,8 @@
       <c r="BP21" s="29"/>
       <c r="BQ21" s="29"/>
       <c r="BR21" s="29"/>
-      <c r="BS21" s="50"/>
-      <c r="BT21" s="62"/>
+      <c r="BS21" s="47"/>
+      <c r="BT21" s="58"/>
       <c r="BU21" s="45"/>
       <c r="BV21" s="29"/>
       <c r="BW21" s="29"/>
@@ -4192,7 +4186,7 @@
       <c r="CB21" s="45"/>
       <c r="CC21" s="29"/>
       <c r="CD21" s="29"/>
-      <c r="CE21" s="77"/>
+      <c r="CE21" s="68"/>
       <c r="CF21" s="29"/>
       <c r="CG21" s="29"/>
       <c r="CH21" s="45"/>
@@ -4210,19 +4204,19 @@
       <c r="CT21" s="29"/>
       <c r="CU21" s="29"/>
       <c r="CV21" s="45"/>
-      <c r="CW21" s="69"/>
+      <c r="CW21" s="62"/>
       <c r="CX21" s="4"/>
     </row>
     <row r="22" spans="2:102" ht="15" customHeight="1">
-      <c r="B22" s="81"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="53"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="59"/>
+      <c r="J22" s="55"/>
       <c r="K22" s="31"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
@@ -4231,7 +4225,7 @@
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="29"/>
-      <c r="S22" s="131"/>
+      <c r="S22" s="107"/>
       <c r="T22" s="29"/>
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
@@ -4252,8 +4246,8 @@
       <c r="AK22" s="45"/>
       <c r="AL22" s="45"/>
       <c r="AM22" s="29"/>
-      <c r="AN22" s="91"/>
-      <c r="AO22" s="133"/>
+      <c r="AN22" s="80"/>
+      <c r="AO22" s="109"/>
       <c r="AP22" s="29"/>
       <c r="AQ22" s="29"/>
       <c r="AR22" s="45"/>
@@ -4283,8 +4277,8 @@
       <c r="BP22" s="29"/>
       <c r="BQ22" s="29"/>
       <c r="BR22" s="29"/>
-      <c r="BS22" s="50"/>
-      <c r="BT22" s="62"/>
+      <c r="BS22" s="47"/>
+      <c r="BT22" s="58"/>
       <c r="BU22" s="45"/>
       <c r="BV22" s="29"/>
       <c r="BW22" s="29"/>
@@ -4295,7 +4289,7 @@
       <c r="CB22" s="45"/>
       <c r="CC22" s="29"/>
       <c r="CD22" s="29"/>
-      <c r="CE22" s="77"/>
+      <c r="CE22" s="68"/>
       <c r="CF22" s="29"/>
       <c r="CG22" s="29"/>
       <c r="CH22" s="45"/>
@@ -4313,23 +4307,23 @@
       <c r="CT22" s="29"/>
       <c r="CU22" s="29"/>
       <c r="CV22" s="45"/>
-      <c r="CW22" s="69"/>
+      <c r="CW22" s="62"/>
       <c r="CX22" s="4"/>
     </row>
     <row r="23" spans="2:102" ht="15" customHeight="1">
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="72" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="137"/>
+        <v>32</v>
+      </c>
+      <c r="D23" s="49"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="59"/>
+      <c r="J23" s="55"/>
       <c r="K23" s="31"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
@@ -4338,7 +4332,7 @@
       <c r="P23" s="45"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="29"/>
-      <c r="S23" s="131"/>
+      <c r="S23" s="107"/>
       <c r="T23" s="29"/>
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
@@ -4359,8 +4353,8 @@
       <c r="AK23" s="45"/>
       <c r="AL23" s="45"/>
       <c r="AM23" s="29"/>
-      <c r="AN23" s="91"/>
-      <c r="AO23" s="133"/>
+      <c r="AN23" s="80"/>
+      <c r="AO23" s="109"/>
       <c r="AP23" s="29"/>
       <c r="AQ23" s="29"/>
       <c r="AR23" s="45"/>
@@ -4390,8 +4384,8 @@
       <c r="BP23" s="29"/>
       <c r="BQ23" s="29"/>
       <c r="BR23" s="29"/>
-      <c r="BS23" s="50"/>
-      <c r="BT23" s="62"/>
+      <c r="BS23" s="47"/>
+      <c r="BT23" s="58"/>
       <c r="BU23" s="45"/>
       <c r="BV23" s="29"/>
       <c r="BW23" s="29"/>
@@ -4402,7 +4396,7 @@
       <c r="CB23" s="45"/>
       <c r="CC23" s="29"/>
       <c r="CD23" s="29"/>
-      <c r="CE23" s="77"/>
+      <c r="CE23" s="68"/>
       <c r="CF23" s="29"/>
       <c r="CG23" s="29"/>
       <c r="CH23" s="45"/>
@@ -4420,23 +4414,23 @@
       <c r="CT23" s="29"/>
       <c r="CU23" s="29"/>
       <c r="CV23" s="45"/>
-      <c r="CW23" s="69"/>
+      <c r="CW23" s="62"/>
       <c r="CX23" s="4"/>
     </row>
     <row r="24" spans="2:102" ht="15" customHeight="1">
-      <c r="B24" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="123" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="53"/>
+      <c r="B24" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="49"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="59"/>
+      <c r="J24" s="55"/>
       <c r="K24" s="31"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
@@ -4445,7 +4439,7 @@
       <c r="P24" s="45"/>
       <c r="Q24" s="45"/>
       <c r="R24" s="29"/>
-      <c r="S24" s="131"/>
+      <c r="S24" s="107"/>
       <c r="T24" s="29"/>
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
@@ -4454,51 +4448,51 @@
       <c r="Y24" s="29"/>
       <c r="Z24" s="29"/>
       <c r="AA24" s="29"/>
-      <c r="AB24" s="140"/>
-      <c r="AC24" s="140"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
       <c r="AD24" s="45"/>
       <c r="AE24" s="45"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="140"/>
-      <c r="AH24" s="140"/>
-      <c r="AI24" s="140"/>
-      <c r="AJ24" s="140"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
       <c r="AK24" s="45"/>
       <c r="AL24" s="45"/>
-      <c r="AM24" s="140"/>
-      <c r="AN24" s="142"/>
-      <c r="AO24" s="133"/>
-      <c r="AP24" s="140"/>
-      <c r="AQ24" s="140"/>
+      <c r="AM24" s="116"/>
+      <c r="AN24" s="118"/>
+      <c r="AO24" s="109"/>
+      <c r="AP24" s="116"/>
+      <c r="AQ24" s="116"/>
       <c r="AR24" s="45"/>
       <c r="AS24" s="45"/>
-      <c r="AT24" s="140"/>
-      <c r="AU24" s="140"/>
-      <c r="AV24" s="140"/>
-      <c r="AW24" s="140"/>
-      <c r="AX24" s="140"/>
+      <c r="AT24" s="116"/>
+      <c r="AU24" s="116"/>
+      <c r="AV24" s="116"/>
+      <c r="AW24" s="116"/>
+      <c r="AX24" s="116"/>
       <c r="AY24" s="45"/>
       <c r="AZ24" s="45"/>
-      <c r="BA24" s="140"/>
-      <c r="BB24" s="140"/>
-      <c r="BC24" s="140"/>
-      <c r="BD24" s="140"/>
-      <c r="BE24" s="140"/>
+      <c r="BA24" s="116"/>
+      <c r="BB24" s="116"/>
+      <c r="BC24" s="116"/>
+      <c r="BD24" s="116"/>
+      <c r="BE24" s="116"/>
       <c r="BF24" s="45"/>
       <c r="BG24" s="45"/>
-      <c r="BH24" s="140"/>
-      <c r="BI24" s="140"/>
-      <c r="BJ24" s="140"/>
-      <c r="BK24" s="140"/>
-      <c r="BL24" s="140"/>
+      <c r="BH24" s="116"/>
+      <c r="BI24" s="116"/>
+      <c r="BJ24" s="116"/>
+      <c r="BK24" s="116"/>
+      <c r="BL24" s="116"/>
       <c r="BM24" s="45"/>
       <c r="BN24" s="45"/>
-      <c r="BO24" s="140"/>
-      <c r="BP24" s="140"/>
-      <c r="BQ24" s="140"/>
-      <c r="BR24" s="140"/>
-      <c r="BS24" s="50"/>
-      <c r="BT24" s="62"/>
+      <c r="BO24" s="116"/>
+      <c r="BP24" s="116"/>
+      <c r="BQ24" s="116"/>
+      <c r="BR24" s="116"/>
+      <c r="BS24" s="47"/>
+      <c r="BT24" s="58"/>
       <c r="BU24" s="45"/>
       <c r="BV24" s="29"/>
       <c r="BW24" s="29"/>
@@ -4509,7 +4503,7 @@
       <c r="CB24" s="45"/>
       <c r="CC24" s="29"/>
       <c r="CD24" s="29"/>
-      <c r="CE24" s="77"/>
+      <c r="CE24" s="68"/>
       <c r="CF24" s="29"/>
       <c r="CG24" s="29"/>
       <c r="CH24" s="45"/>
@@ -4527,23 +4521,23 @@
       <c r="CT24" s="29"/>
       <c r="CU24" s="29"/>
       <c r="CV24" s="45"/>
-      <c r="CW24" s="69"/>
+      <c r="CW24" s="62"/>
       <c r="CX24" s="4"/>
     </row>
     <row r="25" spans="2:102" ht="15" customHeight="1">
-      <c r="B25" s="81" t="s">
-        <v>52</v>
+      <c r="B25" s="72" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="53"/>
+        <v>32</v>
+      </c>
+      <c r="D25" s="49"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="59"/>
+      <c r="J25" s="55"/>
       <c r="K25" s="31"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
@@ -4552,7 +4546,7 @@
       <c r="P25" s="45"/>
       <c r="Q25" s="45"/>
       <c r="R25" s="29"/>
-      <c r="S25" s="131"/>
+      <c r="S25" s="107"/>
       <c r="T25" s="29"/>
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
@@ -4573,8 +4567,8 @@
       <c r="AK25" s="45"/>
       <c r="AL25" s="45"/>
       <c r="AM25" s="29"/>
-      <c r="AN25" s="91"/>
-      <c r="AO25" s="133"/>
+      <c r="AN25" s="80"/>
+      <c r="AO25" s="109"/>
       <c r="AP25" s="29"/>
       <c r="AQ25" s="29"/>
       <c r="AR25" s="45"/>
@@ -4604,10 +4598,10 @@
       <c r="BP25" s="29"/>
       <c r="BQ25" s="29"/>
       <c r="BR25" s="29"/>
-      <c r="BS25" s="114"/>
-      <c r="BT25" s="62"/>
+      <c r="BS25" s="97"/>
+      <c r="BT25" s="58"/>
       <c r="BU25" s="45"/>
-      <c r="BV25" s="140"/>
+      <c r="BV25" s="116"/>
       <c r="BW25" s="29"/>
       <c r="BX25" s="29"/>
       <c r="BY25" s="29"/>
@@ -4616,7 +4610,7 @@
       <c r="CB25" s="45"/>
       <c r="CC25" s="29"/>
       <c r="CD25" s="29"/>
-      <c r="CE25" s="77"/>
+      <c r="CE25" s="68"/>
       <c r="CF25" s="29"/>
       <c r="CG25" s="29"/>
       <c r="CH25" s="45"/>
@@ -4634,23 +4628,23 @@
       <c r="CT25" s="29"/>
       <c r="CU25" s="29"/>
       <c r="CV25" s="45"/>
-      <c r="CW25" s="69"/>
+      <c r="CW25" s="62"/>
       <c r="CX25" s="4"/>
     </row>
     <row r="26" spans="2:102" ht="15" customHeight="1">
-      <c r="B26" s="81" t="s">
-        <v>77</v>
+      <c r="B26" s="72" t="s">
+        <v>75</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="53"/>
+        <v>47</v>
+      </c>
+      <c r="D26" s="49"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="59"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="31"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
@@ -4659,7 +4653,7 @@
       <c r="P26" s="45"/>
       <c r="Q26" s="45"/>
       <c r="R26" s="29"/>
-      <c r="S26" s="131"/>
+      <c r="S26" s="107"/>
       <c r="T26" s="29"/>
       <c r="U26" s="29"/>
       <c r="V26" s="29"/>
@@ -4680,8 +4674,8 @@
       <c r="AK26" s="45"/>
       <c r="AL26" s="45"/>
       <c r="AM26" s="29"/>
-      <c r="AN26" s="91"/>
-      <c r="AO26" s="133"/>
+      <c r="AN26" s="80"/>
+      <c r="AO26" s="109"/>
       <c r="AP26" s="29"/>
       <c r="AQ26" s="29"/>
       <c r="AR26" s="45"/>
@@ -4711,27 +4705,27 @@
       <c r="BP26" s="29"/>
       <c r="BQ26" s="29"/>
       <c r="BR26" s="29"/>
-      <c r="BS26" s="50"/>
-      <c r="BT26" s="62"/>
+      <c r="BS26" s="47"/>
+      <c r="BT26" s="58"/>
       <c r="BU26" s="45"/>
       <c r="BV26" s="29"/>
-      <c r="BW26" s="140"/>
-      <c r="BX26" s="140"/>
-      <c r="BY26" s="140"/>
-      <c r="BZ26" s="140"/>
+      <c r="BW26" s="116"/>
+      <c r="BX26" s="116"/>
+      <c r="BY26" s="116"/>
+      <c r="BZ26" s="116"/>
       <c r="CA26" s="45"/>
       <c r="CB26" s="45"/>
-      <c r="CC26" s="140"/>
-      <c r="CD26" s="29"/>
-      <c r="CE26" s="77"/>
-      <c r="CF26" s="29"/>
-      <c r="CG26" s="29"/>
+      <c r="CC26" s="116"/>
+      <c r="CD26" s="116"/>
+      <c r="CE26" s="68"/>
+      <c r="CF26" s="116"/>
+      <c r="CG26" s="116"/>
       <c r="CH26" s="45"/>
       <c r="CI26" s="45"/>
-      <c r="CJ26" s="29"/>
-      <c r="CK26" s="29"/>
-      <c r="CL26" s="29"/>
-      <c r="CM26" s="29"/>
+      <c r="CJ26" s="116"/>
+      <c r="CK26" s="116"/>
+      <c r="CL26" s="116"/>
+      <c r="CM26" s="116"/>
       <c r="CN26" s="29"/>
       <c r="CO26" s="45"/>
       <c r="CP26" s="45"/>
@@ -4741,19 +4735,19 @@
       <c r="CT26" s="29"/>
       <c r="CU26" s="29"/>
       <c r="CV26" s="45"/>
-      <c r="CW26" s="69"/>
+      <c r="CW26" s="62"/>
       <c r="CX26" s="4"/>
     </row>
     <row r="27" spans="2:102" ht="15" customHeight="1">
-      <c r="B27" s="81"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="53"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="59"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="31"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
@@ -4762,7 +4756,7 @@
       <c r="P27" s="45"/>
       <c r="Q27" s="45"/>
       <c r="R27" s="29"/>
-      <c r="S27" s="131"/>
+      <c r="S27" s="107"/>
       <c r="T27" s="29"/>
       <c r="U27" s="29"/>
       <c r="V27" s="29"/>
@@ -4783,8 +4777,8 @@
       <c r="AK27" s="45"/>
       <c r="AL27" s="45"/>
       <c r="AM27" s="29"/>
-      <c r="AN27" s="91"/>
-      <c r="AO27" s="133"/>
+      <c r="AN27" s="80"/>
+      <c r="AO27" s="109"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
       <c r="AR27" s="45"/>
@@ -4814,8 +4808,8 @@
       <c r="BP27" s="29"/>
       <c r="BQ27" s="29"/>
       <c r="BR27" s="29"/>
-      <c r="BS27" s="50"/>
-      <c r="BT27" s="62"/>
+      <c r="BS27" s="47"/>
+      <c r="BT27" s="58"/>
       <c r="BU27" s="45"/>
       <c r="BV27" s="29"/>
       <c r="BW27" s="29"/>
@@ -4826,7 +4820,7 @@
       <c r="CB27" s="45"/>
       <c r="CC27" s="29"/>
       <c r="CD27" s="29"/>
-      <c r="CE27" s="77"/>
+      <c r="CE27" s="68"/>
       <c r="CF27" s="29"/>
       <c r="CG27" s="29"/>
       <c r="CH27" s="45"/>
@@ -4844,23 +4838,23 @@
       <c r="CT27" s="29"/>
       <c r="CU27" s="29"/>
       <c r="CV27" s="45"/>
-      <c r="CW27" s="69"/>
+      <c r="CW27" s="62"/>
       <c r="CX27" s="4"/>
     </row>
     <row r="28" spans="2:102" ht="15" customHeight="1">
-      <c r="B28" s="81" t="s">
-        <v>53</v>
+      <c r="B28" s="72" t="s">
+        <v>51</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="53"/>
+        <v>33</v>
+      </c>
+      <c r="D28" s="49"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="59"/>
+      <c r="J28" s="55"/>
       <c r="K28" s="31"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
@@ -4869,7 +4863,7 @@
       <c r="P28" s="45"/>
       <c r="Q28" s="45"/>
       <c r="R28" s="29"/>
-      <c r="S28" s="131"/>
+      <c r="S28" s="107"/>
       <c r="T28" s="29"/>
       <c r="U28" s="29"/>
       <c r="V28" s="29"/>
@@ -4890,8 +4884,8 @@
       <c r="AK28" s="45"/>
       <c r="AL28" s="45"/>
       <c r="AM28" s="29"/>
-      <c r="AN28" s="91"/>
-      <c r="AO28" s="133"/>
+      <c r="AN28" s="80"/>
+      <c r="AO28" s="109"/>
       <c r="AP28" s="29"/>
       <c r="AQ28" s="29"/>
       <c r="AR28" s="45"/>
@@ -4921,8 +4915,8 @@
       <c r="BP28" s="29"/>
       <c r="BQ28" s="29"/>
       <c r="BR28" s="29"/>
-      <c r="BS28" s="50"/>
-      <c r="BT28" s="62"/>
+      <c r="BS28" s="47"/>
+      <c r="BT28" s="58"/>
       <c r="BU28" s="45"/>
       <c r="BV28" s="29"/>
       <c r="BW28" s="29"/>
@@ -4933,7 +4927,7 @@
       <c r="CB28" s="45"/>
       <c r="CC28" s="29"/>
       <c r="CD28" s="29"/>
-      <c r="CE28" s="77"/>
+      <c r="CE28" s="68"/>
       <c r="CF28" s="29"/>
       <c r="CG28" s="29"/>
       <c r="CH28" s="45"/>
@@ -4951,23 +4945,23 @@
       <c r="CT28" s="29"/>
       <c r="CU28" s="29"/>
       <c r="CV28" s="45"/>
-      <c r="CW28" s="69"/>
+      <c r="CW28" s="62"/>
       <c r="CX28" s="4"/>
     </row>
     <row r="29" spans="2:102" ht="15" customHeight="1">
-      <c r="B29" s="81" t="s">
-        <v>77</v>
+      <c r="B29" s="72" t="s">
+        <v>75</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="53"/>
+        <v>33</v>
+      </c>
+      <c r="D29" s="49"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="59"/>
+      <c r="J29" s="55"/>
       <c r="K29" s="31"/>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
@@ -4976,7 +4970,7 @@
       <c r="P29" s="45"/>
       <c r="Q29" s="45"/>
       <c r="R29" s="29"/>
-      <c r="S29" s="131"/>
+      <c r="S29" s="107"/>
       <c r="T29" s="29"/>
       <c r="U29" s="29"/>
       <c r="V29" s="29"/>
@@ -4997,8 +4991,8 @@
       <c r="AK29" s="45"/>
       <c r="AL29" s="45"/>
       <c r="AM29" s="29"/>
-      <c r="AN29" s="91"/>
-      <c r="AO29" s="133"/>
+      <c r="AN29" s="80"/>
+      <c r="AO29" s="109"/>
       <c r="AP29" s="29"/>
       <c r="AQ29" s="29"/>
       <c r="AR29" s="45"/>
@@ -5028,8 +5022,8 @@
       <c r="BP29" s="29"/>
       <c r="BQ29" s="29"/>
       <c r="BR29" s="29"/>
-      <c r="BS29" s="50"/>
-      <c r="BT29" s="62"/>
+      <c r="BS29" s="47"/>
+      <c r="BT29" s="58"/>
       <c r="BU29" s="45"/>
       <c r="BV29" s="29"/>
       <c r="BW29" s="29"/>
@@ -5040,7 +5034,7 @@
       <c r="CB29" s="45"/>
       <c r="CC29" s="29"/>
       <c r="CD29" s="29"/>
-      <c r="CE29" s="77"/>
+      <c r="CE29" s="68"/>
       <c r="CF29" s="29"/>
       <c r="CG29" s="29"/>
       <c r="CH29" s="45"/>
@@ -5058,19 +5052,19 @@
       <c r="CT29" s="29"/>
       <c r="CU29" s="29"/>
       <c r="CV29" s="45"/>
-      <c r="CW29" s="69"/>
+      <c r="CW29" s="62"/>
       <c r="CX29" s="4"/>
     </row>
     <row r="30" spans="2:102" ht="15" customHeight="1">
-      <c r="B30" s="81"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="23"/>
-      <c r="D30" s="53"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="59"/>
+      <c r="J30" s="55"/>
       <c r="K30" s="31"/>
       <c r="L30" s="29"/>
       <c r="M30" s="29"/>
@@ -5079,7 +5073,7 @@
       <c r="P30" s="45"/>
       <c r="Q30" s="45"/>
       <c r="R30" s="29"/>
-      <c r="S30" s="131"/>
+      <c r="S30" s="107"/>
       <c r="T30" s="29"/>
       <c r="U30" s="29"/>
       <c r="V30" s="29"/>
@@ -5100,8 +5094,8 @@
       <c r="AK30" s="45"/>
       <c r="AL30" s="45"/>
       <c r="AM30" s="29"/>
-      <c r="AN30" s="91"/>
-      <c r="AO30" s="133"/>
+      <c r="AN30" s="80"/>
+      <c r="AO30" s="109"/>
       <c r="AP30" s="29"/>
       <c r="AQ30" s="29"/>
       <c r="AR30" s="45"/>
@@ -5131,8 +5125,8 @@
       <c r="BP30" s="29"/>
       <c r="BQ30" s="29"/>
       <c r="BR30" s="29"/>
-      <c r="BS30" s="50"/>
-      <c r="BT30" s="62"/>
+      <c r="BS30" s="47"/>
+      <c r="BT30" s="58"/>
       <c r="BU30" s="45"/>
       <c r="BV30" s="29"/>
       <c r="BW30" s="29"/>
@@ -5143,7 +5137,7 @@
       <c r="CB30" s="45"/>
       <c r="CC30" s="29"/>
       <c r="CD30" s="29"/>
-      <c r="CE30" s="77"/>
+      <c r="CE30" s="68"/>
       <c r="CF30" s="29"/>
       <c r="CG30" s="29"/>
       <c r="CH30" s="45"/>
@@ -5161,21 +5155,21 @@
       <c r="CT30" s="29"/>
       <c r="CU30" s="29"/>
       <c r="CV30" s="45"/>
-      <c r="CW30" s="69"/>
+      <c r="CW30" s="62"/>
       <c r="CX30" s="4"/>
     </row>
     <row r="31" spans="2:102" ht="15" customHeight="1">
-      <c r="B31" s="81" t="s">
-        <v>50</v>
+      <c r="B31" s="72" t="s">
+        <v>48</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="53"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="59"/>
+      <c r="J31" s="55"/>
       <c r="K31" s="31"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
@@ -5184,7 +5178,7 @@
       <c r="P31" s="45"/>
       <c r="Q31" s="45"/>
       <c r="R31" s="29"/>
-      <c r="S31" s="131"/>
+      <c r="S31" s="107"/>
       <c r="T31" s="29"/>
       <c r="U31" s="29"/>
       <c r="V31" s="29"/>
@@ -5205,8 +5199,8 @@
       <c r="AK31" s="45"/>
       <c r="AL31" s="45"/>
       <c r="AM31" s="29"/>
-      <c r="AN31" s="91"/>
-      <c r="AO31" s="133"/>
+      <c r="AN31" s="80"/>
+      <c r="AO31" s="109"/>
       <c r="AP31" s="29"/>
       <c r="AQ31" s="29"/>
       <c r="AR31" s="45"/>
@@ -5236,8 +5230,8 @@
       <c r="BP31" s="29"/>
       <c r="BQ31" s="29"/>
       <c r="BR31" s="29"/>
-      <c r="BS31" s="50"/>
-      <c r="BT31" s="62"/>
+      <c r="BS31" s="47"/>
+      <c r="BT31" s="58"/>
       <c r="BU31" s="45"/>
       <c r="BV31" s="29"/>
       <c r="BW31" s="29"/>
@@ -5248,7 +5242,7 @@
       <c r="CB31" s="45"/>
       <c r="CC31" s="29"/>
       <c r="CD31" s="29"/>
-      <c r="CE31" s="77"/>
+      <c r="CE31" s="68"/>
       <c r="CF31" s="29"/>
       <c r="CG31" s="29"/>
       <c r="CH31" s="45"/>
@@ -5266,19 +5260,19 @@
       <c r="CT31" s="29"/>
       <c r="CU31" s="29"/>
       <c r="CV31" s="45"/>
-      <c r="CW31" s="69"/>
+      <c r="CW31" s="62"/>
       <c r="CX31" s="4"/>
     </row>
     <row r="32" spans="2:102" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B32" s="85"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="43"/>
-      <c r="D32" s="86"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="87"/>
+      <c r="J32" s="78"/>
       <c r="K32" s="32"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
@@ -5287,7 +5281,7 @@
       <c r="P32" s="44"/>
       <c r="Q32" s="44"/>
       <c r="R32" s="14"/>
-      <c r="S32" s="127"/>
+      <c r="S32" s="103"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
@@ -5308,8 +5302,8 @@
       <c r="AK32" s="44"/>
       <c r="AL32" s="44"/>
       <c r="AM32" s="14"/>
-      <c r="AN32" s="124"/>
-      <c r="AO32" s="134"/>
+      <c r="AN32" s="100"/>
+      <c r="AO32" s="110"/>
       <c r="AP32" s="14"/>
       <c r="AQ32" s="14"/>
       <c r="AR32" s="44"/>
@@ -5339,8 +5333,8 @@
       <c r="BP32" s="14"/>
       <c r="BQ32" s="14"/>
       <c r="BR32" s="14"/>
-      <c r="BS32" s="51"/>
-      <c r="BT32" s="63"/>
+      <c r="BS32" s="48"/>
+      <c r="BT32" s="59"/>
       <c r="BU32" s="44"/>
       <c r="BV32" s="14"/>
       <c r="BW32" s="14"/>
@@ -5351,7 +5345,7 @@
       <c r="CB32" s="44"/>
       <c r="CC32" s="14"/>
       <c r="CD32" s="14"/>
-      <c r="CE32" s="76"/>
+      <c r="CE32" s="67"/>
       <c r="CF32" s="14"/>
       <c r="CG32" s="14"/>
       <c r="CH32" s="44"/>
@@ -5369,11 +5363,11 @@
       <c r="CT32" s="14"/>
       <c r="CU32" s="14"/>
       <c r="CV32" s="44"/>
-      <c r="CW32" s="68"/>
+      <c r="CW32" s="61"/>
       <c r="CX32" s="4"/>
     </row>
     <row r="33" spans="2:102" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B33" s="84"/>
+      <c r="B33" s="75"/>
       <c r="C33" s="34"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -8527,30 +8521,36 @@
     </row>
     <row r="89" spans="2:102" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="90" spans="2:102" ht="15" customHeight="1">
-      <c r="B90" s="88" t="s">
+      <c r="B90" s="142" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="2:102" ht="15" customHeight="1">
+      <c r="B91" s="143"/>
+    </row>
+    <row r="92" spans="2:102" ht="15" customHeight="1">
+      <c r="B92" s="112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="2:102" ht="15" customHeight="1">
+      <c r="B93" s="79" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="2:102" ht="15" customHeight="1">
-      <c r="B91" s="89"/>
-    </row>
-    <row r="92" spans="2:102" ht="15" customHeight="1">
-      <c r="B92" s="136" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="2:102" ht="15" customHeight="1">
-      <c r="B93" s="90" t="s">
+    <row r="94" spans="2:102" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B94" s="117" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="2:102" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B94" s="141" t="s">
-        <v>30</v>
+    <row r="95" spans="2:102" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B95" s="141" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B90:B91"/>
     <mergeCell ref="BT3:CW3"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="B3:B5"/>
@@ -8578,121 +8578,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="91" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B3" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="101" t="s">
+      <c r="B3" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="83" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="95">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="94" t="s">
+      <c r="C6" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="95">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="94" t="s">
+      <c r="C7" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C8" s="84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="84">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="84">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="95">
+    <row r="11" spans="2:3">
+      <c r="B11" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="84">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="94" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="95">
+      <c r="C12" s="84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="84">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="95">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="94" t="s">
+    <row r="14" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+    </row>
+    <row r="15" spans="2:3" s="81" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B15" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="95">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B14" s="94"/>
-      <c r="C14" s="95"/>
-    </row>
-    <row r="15" spans="2:3" s="92" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B15" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="99">
+      <c r="C15" s="88">
         <f>SUM(C5:C13)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="115" t="s">
-        <v>81</v>
+      <c r="B17" s="98" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -8708,308 +8710,308 @@
   <dimension ref="B1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C29"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
     <col min="3" max="3" width="110.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="109"/>
+      <c r="C2" s="137"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B3" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="101" t="s">
-        <v>36</v>
+      <c r="B3" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="139"/>
+      <c r="D3" s="90" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="97"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="86"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="94">
+      <c r="B5" s="83">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="83">
+        <v>2</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="83">
+        <v>3</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="83">
+        <v>4</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="83">
+        <v>5</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="83">
+        <v>6</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="83">
+        <v>7</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="83">
+        <v>8</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="83">
+        <v>9</v>
+      </c>
+      <c r="C13" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="94">
+      <c r="D13" s="84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="83">
+        <v>10</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="84">
         <v>2</v>
       </c>
-      <c r="C6" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="94">
-        <v>3</v>
-      </c>
-      <c r="C7" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="95">
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="83">
+        <v>11</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="83">
+        <v>12</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="83">
+        <v>13</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="84">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="94">
-        <v>4</v>
-      </c>
-      <c r="C8" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="94">
-        <v>5</v>
-      </c>
-      <c r="C9" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="94">
-        <v>6</v>
-      </c>
-      <c r="C10" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="95">
+    <row r="18" spans="2:4">
+      <c r="B18" s="83">
+        <v>14</v>
+      </c>
+      <c r="C18" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="83">
+        <v>15</v>
+      </c>
+      <c r="C19" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="83">
+        <v>16</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="83">
+        <v>17</v>
+      </c>
+      <c r="C21" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="83">
+        <v>18</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="84">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="94">
-        <v>7</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="95">
+    <row r="23" spans="2:4">
+      <c r="B23" s="83">
+        <v>19</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="84">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="94">
-        <v>8</v>
-      </c>
-      <c r="C12" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="95">
+    <row r="24" spans="2:4">
+      <c r="B24" s="83">
+        <v>20</v>
+      </c>
+      <c r="C24" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="84">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="94">
-        <v>9</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="94">
-        <v>10</v>
-      </c>
-      <c r="C14" s="106" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="94">
-        <v>11</v>
-      </c>
-      <c r="C15" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="95">
+    <row r="25" spans="2:4">
+      <c r="B25" s="83">
+        <v>21</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="83">
+        <v>22</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="84">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="94">
-        <v>12</v>
-      </c>
-      <c r="C16" s="106" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="95">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="94">
-        <v>13</v>
-      </c>
-      <c r="C17" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="94">
-        <v>14</v>
-      </c>
-      <c r="C18" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="95">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="94">
-        <v>15</v>
-      </c>
-      <c r="C19" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="95">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="94">
-        <v>16</v>
-      </c>
-      <c r="C20" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="95">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="94">
-        <v>17</v>
-      </c>
-      <c r="C21" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="95">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="94">
-        <v>18</v>
-      </c>
-      <c r="C22" s="106" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="94">
-        <v>19</v>
-      </c>
-      <c r="C23" s="106" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="94">
-        <v>20</v>
-      </c>
-      <c r="C24" s="106" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="95">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="94">
-        <v>21</v>
-      </c>
-      <c r="C25" s="106" t="s">
+    <row r="27" spans="2:4">
+      <c r="B27" s="83">
+        <v>23</v>
+      </c>
+      <c r="C27" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="94">
-        <v>22</v>
-      </c>
-      <c r="C26" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="95">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="94">
-        <v>23</v>
-      </c>
-      <c r="C27" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="95">
+      <c r="D27" s="84">
         <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B28" s="103"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="95"/>
-    </row>
-    <row r="29" spans="2:4" s="92" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B29" s="112" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="99">
+      <c r="B28" s="92"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="84"/>
+    </row>
+    <row r="29" spans="2:4" s="81" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B29" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="135"/>
+      <c r="D29" s="88">
         <f>SUM(D5:D27)</f>
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="115" t="s">
-        <v>81</v>
+      <c r="C31" s="98" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
